--- a/Assets/Resources/DB/통합DB.xlsx
+++ b/Assets/Resources/DB/통합DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choij\Desktop\Project\Rise_and_Fall\Assets\Resources\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C1226-CE6E-4CA0-8DEB-1D64F668C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92A263-2959-4A44-B152-61CAC8F387CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1AF95657-5059-4D4D-B536-76F4D1B577A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1AF95657-5059-4D4D-B536-76F4D1B577A8}"/>
   </bookViews>
   <sheets>
     <sheet name="자원" sheetId="1" r:id="rId1"/>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P011</t>
   </si>
   <si>
@@ -375,6 +371,10 @@
   </si>
   <si>
     <t>병영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +745,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -865,7 +865,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11951545-FE6A-4E7D-9A32-BFF3D5D1A7E9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
@@ -1146,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2E9E84-787C-43BC-8FE9-88104D9FD448}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1165,107 +1165,107 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/DB/통합DB.xlsx
+++ b/Assets/Resources/DB/통합DB.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choij\Desktop\Project\Rise_and_Fall\Assets\Resources\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE92A263-2959-4A44-B152-61CAC8F387CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB96DD1-EA21-4ADF-9064-5A95A1DFB10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1AF95657-5059-4D4D-B536-76F4D1B577A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1AF95657-5059-4D4D-B536-76F4D1B577A8}"/>
   </bookViews>
   <sheets>
     <sheet name="자원" sheetId="1" r:id="rId1"/>
     <sheet name="기술" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="건축물" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>목재</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,19 +290,55 @@
     <t>R010</t>
   </si>
   <si>
+    <t>종교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>농장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방목장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성</t>
+    <t>주택가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식량 생산 슬롯 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급주택가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈민가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구 캡 10 증가, 거주 제한 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구 캡 5 증가, 거주 제한 5, 거주 인구 행복도 10 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구 캡을 넘길 경우 자동 생성됨, 거주 인구 행복도 10 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,35 +346,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>항구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대신전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만신전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급주택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대시장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무역항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어항</t>
+    <t>선택한 신의 신앙 10 증가, 대신전으로 업그레이드 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재성벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석재성벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 500, 내구도만큼 적의 공성을 막는다. 병사를 배치하여 공성하는 적에게 데미지를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 2000, 내구도만큼 적의 공성을 막는다. 병사를 배치하여 공성하는 적에게 데미지를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구점, 문화, 신앙 5 생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대극장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대도서관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,35 +394,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아카데미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형공방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형조선소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종교</t>
+    <t>선택한 신의 신앙 50 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화 생산 슬롯 1개, 대극장으로 업그레이드 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화 생산 슬롯 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구점 생산 슬롯 1개, 대도서관으로 업그레이드 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구점 생산 슬롯 3개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11951545-FE6A-4E7D-9A32-BFF3D5D1A7E9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1130,7 +1166,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
@@ -1144,132 +1180,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2E9E84-787C-43BC-8FE9-88104D9FD448}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="91.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>